--- a/src/test/resources/testdata/logindata.xlsx
+++ b/src/test/resources/testdata/logindata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Excel file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98CD72E-F4E4-4056-A5A2-D3569ACA6E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C711B0-6842-4922-B9B9-A7A650BC2431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E4675E1-21BD-48C0-8BD8-8A224E6C0012}"/>
   </bookViews>
   <sheets>
-    <sheet name="signup" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="search" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>email</t>
   </si>
@@ -64,21 +64,12 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>admin@123</t>
   </si>
   <si>
     <t>rohitc@1122.com</t>
   </si>
   <si>
-    <t>Peth Vadgaon</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -97,10 +88,28 @@
     <t>year</t>
   </si>
   <si>
-    <t>mr</t>
-  </si>
-  <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>rohit@123.com</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>chougule</t>
+  </si>
+  <si>
+    <t>rohit@123</t>
+  </si>
+  <si>
+    <t>vadgaon</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
   </si>
 </sst>
 </file>
@@ -145,18 +154,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,251 +471,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B5AB3-024B-4F5B-B092-AFB8C3831366}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187BF51D-EFB7-4131-95B6-08D0411DC67C}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="H2">
+        <v>1996</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2">
         <v>416112</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>9665931960</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0128D839-46DE-4A16-A157-5E7125D26318}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{1664B650-7D6A-4866-8091-CC0AE6CAB435}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D5B98D7B-2133-4C57-A063-25814A7BB21F}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{B21140B1-68BE-498C-A7A6-9F6C9E463E3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -733,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -741,10 +598,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -768,12 +625,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
